--- a/gabbia_logica (80574).xlsx
+++ b/gabbia_logica (80574).xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,11 +17,12 @@
     <sheet name="Chi siamo" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="-" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="Home mobile" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="scr mobile" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="rec mobile" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="FAQ mobile" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="contatti mobile" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="chisiamo mobile" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="features mobile" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="scr mobile" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="rec mobile" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="FAQ mobile" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="contatti mobile" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="chisiamo mobile" sheetId="15" state="visible" r:id="rId16"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="40">
   <si>
     <t>LOGO</t>
   </si>
@@ -74,16 +75,22 @@
     <t>Chi siamo</t>
   </si>
   <si>
+    <t>Cosa puoi fare</t>
+  </si>
+  <si>
     <t>img</t>
+  </si>
+  <si>
+    <t>la 3a feature nn si vede dato che bisogna scrollare</t>
   </si>
   <si>
     <t>descrizione approfondita prima feature</t>
   </si>
   <si>
-    <t>la 3a feature nn si vede dato che bisogna scrollare</t>
+    <t>Cosa troverai</t>
   </si>
   <si>
-    <t>screenshot</t>
+    <t>telefono fisso con scrshot variabile</t>
   </si>
   <si>
     <t>descrizione approfondita funzionalita illustrate nello screenshot</t>
@@ -92,31 +99,16 @@
     <t>ovviamente ho riportato cio che si dovrebbe vedere nella realtà, quindi non tutti gli screenshots</t>
   </si>
   <si>
-    <t>logo univaqino</t>
-  </si>
-  <si>
     <t>Recensioni</t>
-  </si>
-  <si>
-    <t>Utente 1</t>
   </si>
   <si>
     <t>sua recensione</t>
   </si>
   <si>
-    <t>Utente 2</t>
+    <t>Dubbi o domande?</t>
   </si>
   <si>
-    <t>FAQs</t>
-  </si>
-  <si>
-    <t>DOMANDA</t>
-  </si>
-  <si>
-    <t>risposta</t>
-  </si>
-  <si>
-    <t>Contattaci</t>
+    <t>faq</t>
   </si>
   <si>
     <t>mail</t>
@@ -140,9 +132,6 @@
     <t>cv del membro</t>
   </si>
   <si>
-    <t>membro 2</t>
-  </si>
-  <si>
     <t>Menu</t>
   </si>
   <si>
@@ -152,10 +141,7 @@
     <t>descrizione breve feature</t>
   </si>
   <si>
-    <t>Cosa troverai</t>
-  </si>
-  <si>
-    <t>telefono fisso con scrennshot variabili</t>
+    <t>screen</t>
   </si>
   <si>
     <t>Cosa pensano di noi</t>
@@ -164,19 +150,10 @@
     <t>testo recensione</t>
   </si>
   <si>
-    <t>Dubbi o domande?</t>
-  </si>
-  <si>
-    <t>faq</t>
-  </si>
-  <si>
     <t>tutto visibile</t>
   </si>
   <si>
-    <t>foto membro</t>
-  </si>
-  <si>
-    <t>descrizione </t>
+    <t>descrizione membro</t>
   </si>
 </sst>
 </file>
@@ -186,7 +163,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -224,11 +201,24 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="36"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="28"/>
@@ -239,13 +229,6 @@
     </font>
     <font>
       <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="36"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -279,7 +262,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="28">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -375,7 +358,7 @@
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -494,6 +477,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF3333"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -519,11 +518,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -620,20 +619,24 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -644,7 +647,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -656,16 +659,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -724,11 +719,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -736,11 +735,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -801,7 +804,7 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF3333"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
@@ -830,7 +833,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.05"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.7592592592593"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.0518518518519"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1435,67 +1438,67 @@
   <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G40" activeCellId="0" sqref="G40"/>
+      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.05"/>
   <cols>
-    <col collapsed="false" hidden="false" max="22" min="1" style="0" width="11.7592592592593"/>
-    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="22" min="1" style="0" width="12.0518518518519"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="9.01481481481481"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J1" s="12"/>
     </row>
     <row r="2" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="39" t="s">
-        <v>36</v>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="38" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="39"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="38"/>
     </row>
     <row r="4" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="39"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="38"/>
     </row>
     <row r="5" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="12"/>
-      <c r="B5" s="40"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -1506,555 +1509,500 @@
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
-      <c r="M5" s="43"/>
+      <c r="M5" s="42"/>
     </row>
     <row r="6" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="12"/>
-      <c r="B6" s="42"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
-      <c r="M6" s="43"/>
+      <c r="M6" s="42"/>
     </row>
     <row r="7" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="12"/>
-      <c r="B7" s="42"/>
-      <c r="M7" s="43"/>
+      <c r="B7" s="41"/>
+      <c r="M7" s="42"/>
     </row>
     <row r="8" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="12"/>
-      <c r="B8" s="42"/>
-      <c r="F8" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="M8" s="43"/>
+      <c r="B8" s="41"/>
+      <c r="F8" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="M8" s="42"/>
     </row>
     <row r="9" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="12"/>
-      <c r="B9" s="42"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="M9" s="43"/>
+      <c r="B9" s="41"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="M9" s="42"/>
     </row>
     <row r="10" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="12"/>
-      <c r="B10" s="42"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="M10" s="43"/>
+      <c r="B10" s="41"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="M10" s="42"/>
     </row>
     <row r="11" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="12"/>
-      <c r="B11" s="42"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="M11" s="43"/>
+      <c r="B11" s="41"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="M11" s="42"/>
     </row>
     <row r="12" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="12"/>
-      <c r="B12" s="42"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="M12" s="43"/>
+      <c r="B12" s="41"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="M12" s="42"/>
     </row>
     <row r="13" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="12"/>
-      <c r="B13" s="42"/>
-      <c r="M13" s="43"/>
+      <c r="B13" s="41"/>
+      <c r="M13" s="42"/>
     </row>
     <row r="14" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="12"/>
-      <c r="B14" s="42"/>
-      <c r="M14" s="43"/>
+      <c r="B14" s="41"/>
+      <c r="M14" s="42"/>
     </row>
     <row r="15" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="12"/>
-      <c r="B15" s="42"/>
-      <c r="M15" s="43"/>
+      <c r="B15" s="41"/>
+      <c r="M15" s="42"/>
     </row>
     <row r="16" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="12"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="B16" s="41"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="M16" s="43"/>
+      <c r="F16" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="M16" s="42"/>
     </row>
     <row r="17" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="12"/>
-      <c r="B17" s="42"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="M17" s="43"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="M17" s="42"/>
     </row>
     <row r="18" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="12"/>
-      <c r="B18" s="42"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="G18" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="43"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="M18" s="42"/>
     </row>
     <row r="19" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="12"/>
-      <c r="B19" s="42"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="43"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="M19" s="42"/>
     </row>
     <row r="20" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="42"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="43"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="M20" s="42"/>
     </row>
     <row r="21" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="12"/>
-      <c r="B21" s="42"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="43"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="M21" s="42"/>
     </row>
     <row r="22" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="12"/>
-      <c r="B22" s="42"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="43"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="M22" s="42"/>
     </row>
     <row r="23" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="12"/>
-      <c r="B23" s="42"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="43"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="M23" s="42"/>
     </row>
     <row r="24" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="12"/>
-      <c r="B24" s="42"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="43"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="M24" s="42"/>
     </row>
     <row r="25" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="12"/>
-      <c r="B25" s="42"/>
+      <c r="B25" s="41"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="43"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="M25" s="42"/>
     </row>
     <row r="26" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="12"/>
-      <c r="B26" s="42"/>
+      <c r="B26" s="41"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="43"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="M26" s="42"/>
     </row>
     <row r="27" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="12"/>
-      <c r="B27" s="42"/>
+      <c r="B27" s="41"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
-      <c r="M27" s="43"/>
+      <c r="M27" s="42"/>
     </row>
     <row r="28" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="12"/>
-      <c r="B28" s="42"/>
+      <c r="B28" s="41"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
-      <c r="M28" s="43"/>
+      <c r="M28" s="42"/>
     </row>
     <row r="29" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="12"/>
-      <c r="B29" s="42"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
-      <c r="G29" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="43"/>
+      <c r="M29" s="42"/>
     </row>
     <row r="30" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="12"/>
-      <c r="B30" s="42"/>
+      <c r="B30" s="41"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="19"/>
       <c r="G30" s="19"/>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="43"/>
+      <c r="M30" s="42"/>
     </row>
     <row r="31" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="12"/>
-      <c r="B31" s="42"/>
+      <c r="B31" s="41"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
       <c r="G31" s="19"/>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="43"/>
+      <c r="M31" s="42"/>
     </row>
     <row r="32" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="12"/>
-      <c r="B32" s="42"/>
+      <c r="B32" s="41"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
       <c r="G32" s="19"/>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="43"/>
+      <c r="M32" s="42"/>
     </row>
     <row r="33" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="12"/>
-      <c r="B33" s="42"/>
+      <c r="B33" s="41"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
       <c r="G33" s="19"/>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="43"/>
+      <c r="M33" s="42"/>
     </row>
     <row r="34" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="12"/>
-      <c r="B34" s="42"/>
+      <c r="B34" s="41"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
       <c r="G34" s="19"/>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="43"/>
+      <c r="M34" s="42"/>
     </row>
     <row r="35" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="12"/>
-      <c r="B35" s="42"/>
+      <c r="B35" s="41"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="43"/>
+      <c r="M35" s="42"/>
     </row>
     <row r="36" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="12"/>
-      <c r="B36" s="42"/>
+      <c r="B36" s="41"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
       <c r="G36" s="19"/>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="43"/>
+      <c r="M36" s="42"/>
     </row>
     <row r="37" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="12"/>
-      <c r="B37" s="42"/>
+      <c r="B37" s="41"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
       <c r="G37" s="19"/>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="43"/>
+      <c r="M37" s="42"/>
     </row>
     <row r="38" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="12"/>
-      <c r="B38" s="42"/>
+      <c r="B38" s="41"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="M38" s="43"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="M38" s="42"/>
     </row>
     <row r="39" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="12"/>
-      <c r="B39" s="42"/>
+      <c r="B39" s="41"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
-      <c r="M39" s="43"/>
+      <c r="M39" s="42"/>
     </row>
     <row r="40" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="12"/>
-      <c r="B40" s="42"/>
+      <c r="B40" s="41"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
-      <c r="G40" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="43"/>
+      <c r="M40" s="42"/>
     </row>
     <row r="41" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="12"/>
-      <c r="B41" s="42"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="43"/>
+      <c r="B41" s="41"/>
+      <c r="M41" s="42"/>
     </row>
     <row r="42" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="12"/>
-      <c r="B42" s="42"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="43"/>
+      <c r="B42" s="41"/>
+      <c r="M42" s="42"/>
     </row>
     <row r="43" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="12"/>
-      <c r="B43" s="42"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="43"/>
+      <c r="B43" s="41"/>
+      <c r="F43" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="51"/>
+      <c r="M43" s="42"/>
     </row>
     <row r="44" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="12"/>
-      <c r="B44" s="42"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="43"/>
+      <c r="B44" s="41"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
+      <c r="M44" s="42"/>
     </row>
     <row r="45" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="12"/>
-      <c r="B45" s="42"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="43"/>
+      <c r="B45" s="41"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="51"/>
+      <c r="M45" s="42"/>
     </row>
     <row r="46" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="12"/>
-      <c r="B46" s="42"/>
+      <c r="B46" s="41"/>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
       <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="43"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="51"/>
+      <c r="M46" s="42"/>
     </row>
     <row r="47" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="12"/>
-      <c r="B47" s="42"/>
+      <c r="B47" s="41"/>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="43"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
+      <c r="M47" s="42"/>
     </row>
     <row r="48" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="12"/>
-      <c r="B48" s="42"/>
+      <c r="B48" s="41"/>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="43"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="51"/>
+      <c r="M48" s="42"/>
     </row>
     <row r="49" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="12"/>
-      <c r="B49" s="42"/>
+      <c r="B49" s="41"/>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="51"/>
       <c r="J49" s="14"/>
       <c r="K49" s="14"/>
       <c r="L49" s="14"/>
-      <c r="M49" s="43"/>
+      <c r="M49" s="42"/>
     </row>
     <row r="50" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="12"/>
-      <c r="B50" s="42"/>
+      <c r="B50" s="41"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="51"/>
       <c r="J50" s="14"/>
       <c r="K50" s="14"/>
       <c r="L50" s="14"/>
-      <c r="M50" s="43"/>
+      <c r="M50" s="42"/>
     </row>
     <row r="51" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="12"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="47"/>
-      <c r="K51" s="47"/>
-      <c r="L51" s="47"/>
-      <c r="M51" s="49"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="46"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="46"/>
+      <c r="M51" s="48"/>
     </row>
     <row r="52" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="12"/>
@@ -2077,7 +2025,7 @@
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
-      <c r="F53" s="12"/>
+      <c r="F53" s="14"/>
       <c r="G53" s="14"/>
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
@@ -2197,10 +2145,10 @@
     <mergeCell ref="L2:L4"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="F8:I12"/>
-    <mergeCell ref="C16:E40"/>
-    <mergeCell ref="G18:L26"/>
-    <mergeCell ref="G29:L37"/>
-    <mergeCell ref="G40:L48"/>
+    <mergeCell ref="F16:I26"/>
+    <mergeCell ref="E30:J38"/>
+    <mergeCell ref="F43:I51"/>
+    <mergeCell ref="F52:I53"/>
     <mergeCell ref="C58:E59"/>
     <mergeCell ref="K58:L59"/>
   </mergeCells>
@@ -2219,6 +2167,748 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:M60"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K40" activeCellId="0" sqref="K40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.05"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="22" min="1" style="0" width="12.0518518518519"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="9.01481481481481"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="38"/>
+    </row>
+    <row r="4" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="38"/>
+    </row>
+    <row r="5" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="42"/>
+    </row>
+    <row r="6" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="42"/>
+    </row>
+    <row r="7" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12"/>
+      <c r="B7" s="41"/>
+      <c r="M7" s="42"/>
+    </row>
+    <row r="8" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12"/>
+      <c r="B8" s="41"/>
+      <c r="F8" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="M8" s="42"/>
+    </row>
+    <row r="9" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12"/>
+      <c r="B9" s="41"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="M9" s="42"/>
+    </row>
+    <row r="10" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12"/>
+      <c r="B10" s="41"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="M10" s="42"/>
+    </row>
+    <row r="11" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12"/>
+      <c r="B11" s="41"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="M11" s="42"/>
+    </row>
+    <row r="12" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12"/>
+      <c r="B12" s="41"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="M12" s="42"/>
+    </row>
+    <row r="13" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12"/>
+      <c r="B13" s="41"/>
+      <c r="M13" s="42"/>
+    </row>
+    <row r="14" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="12"/>
+      <c r="B14" s="41"/>
+      <c r="M14" s="42"/>
+    </row>
+    <row r="15" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12"/>
+      <c r="B15" s="41"/>
+      <c r="M15" s="42"/>
+    </row>
+    <row r="16" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12"/>
+      <c r="B16" s="41"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="M16" s="42"/>
+    </row>
+    <row r="17" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="M17" s="42"/>
+    </row>
+    <row r="18" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="12"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="M18" s="42"/>
+    </row>
+    <row r="19" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="12"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="M19" s="42"/>
+    </row>
+    <row r="20" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="41"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="M20" s="42"/>
+    </row>
+    <row r="21" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="12"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="M21" s="42"/>
+    </row>
+    <row r="22" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="12"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="M22" s="42"/>
+    </row>
+    <row r="23" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="12"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="M23" s="42"/>
+    </row>
+    <row r="24" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="12"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="M24" s="42"/>
+    </row>
+    <row r="25" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="12"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="M25" s="42"/>
+    </row>
+    <row r="26" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="12"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="M26" s="42"/>
+    </row>
+    <row r="27" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="12"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="M27" s="42"/>
+    </row>
+    <row r="28" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="12"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="M28" s="42"/>
+    </row>
+    <row r="29" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="12"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="M29" s="42"/>
+    </row>
+    <row r="30" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="12"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="M30" s="42"/>
+    </row>
+    <row r="31" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="12"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="M31" s="42"/>
+    </row>
+    <row r="32" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="12"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="M32" s="42"/>
+    </row>
+    <row r="33" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="12"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="M33" s="42"/>
+    </row>
+    <row r="34" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="12"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="M34" s="42"/>
+    </row>
+    <row r="35" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="12"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="M35" s="42"/>
+    </row>
+    <row r="36" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="12"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="M36" s="42"/>
+    </row>
+    <row r="37" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="12"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="M37" s="42"/>
+    </row>
+    <row r="38" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="12"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="M38" s="42"/>
+    </row>
+    <row r="39" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="12"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="M39" s="42"/>
+    </row>
+    <row r="40" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="12"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="M40" s="42"/>
+    </row>
+    <row r="41" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="12"/>
+      <c r="B41" s="41"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="M41" s="42"/>
+    </row>
+    <row r="42" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="12"/>
+      <c r="B42" s="41"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="51"/>
+      <c r="M42" s="42"/>
+    </row>
+    <row r="43" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="12"/>
+      <c r="B43" s="41"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="51"/>
+      <c r="M43" s="42"/>
+    </row>
+    <row r="44" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="12"/>
+      <c r="B44" s="41"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
+      <c r="M44" s="42"/>
+    </row>
+    <row r="45" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="12"/>
+      <c r="B45" s="41"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="51"/>
+      <c r="M45" s="42"/>
+    </row>
+    <row r="46" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="12"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="51"/>
+      <c r="M46" s="42"/>
+    </row>
+    <row r="47" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="12"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
+      <c r="M47" s="42"/>
+    </row>
+    <row r="48" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="12"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="51"/>
+      <c r="M48" s="42"/>
+    </row>
+    <row r="49" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="12"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="51"/>
+      <c r="M49" s="42"/>
+    </row>
+    <row r="50" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="12"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="42"/>
+    </row>
+    <row r="51" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="12"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="46"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="46"/>
+      <c r="M51" s="48"/>
+    </row>
+    <row r="52" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="12"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="13"/>
+    </row>
+    <row r="53" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="12"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="13"/>
+    </row>
+    <row r="54" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="12"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="13"/>
+    </row>
+    <row r="55" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="12"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="13"/>
+    </row>
+    <row r="56" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="12"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="16"/>
+    </row>
+    <row r="57" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="13"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="13"/>
+    </row>
+    <row r="58" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B58" s="10"/>
+      <c r="C58" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="K58" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="L58" s="20"/>
+      <c r="M58" s="13"/>
+    </row>
+    <row r="59" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B59" s="10"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="13"/>
+    </row>
+    <row r="60" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B60" s="15"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="F8:I12"/>
+    <mergeCell ref="E16:J24"/>
+    <mergeCell ref="F28:I51"/>
+    <mergeCell ref="F52:I53"/>
+    <mergeCell ref="C58:E59"/>
+    <mergeCell ref="K58:L59"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:O60"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -2227,8 +2917,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.05"/>
   <cols>
-    <col collapsed="false" hidden="false" max="22" min="1" style="0" width="11.7592592592593"/>
-    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="22" min="1" style="0" width="12.0518518518519"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="9.01481481481481"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2236,57 +2926,57 @@
       <c r="O1" s="12"/>
     </row>
     <row r="2" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="39" t="s">
-        <v>36</v>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="38" t="s">
+        <v>32</v>
       </c>
       <c r="O2" s="12"/>
     </row>
     <row r="3" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="39"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="38"/>
       <c r="O3" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="39"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="38"/>
       <c r="O4" s="12"/>
     </row>
     <row r="5" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="12"/>
-      <c r="B5" s="42"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -2297,38 +2987,38 @@
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
-      <c r="M5" s="43"/>
+      <c r="M5" s="42"/>
       <c r="O5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="12"/>
-      <c r="B6" s="42"/>
+      <c r="B6" s="41"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
-      <c r="M6" s="43"/>
+      <c r="M6" s="42"/>
       <c r="O6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="12"/>
-      <c r="B7" s="42"/>
+      <c r="B7" s="41"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
-      <c r="M7" s="43"/>
+      <c r="M7" s="42"/>
       <c r="O7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="12"/>
-      <c r="B8" s="42"/>
+      <c r="B8" s="41"/>
       <c r="E8" s="53" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F8" s="53"/>
       <c r="G8" s="53"/>
@@ -2337,12 +3027,12 @@
       <c r="J8" s="53"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
-      <c r="M8" s="43"/>
+      <c r="M8" s="42"/>
       <c r="O8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="12"/>
-      <c r="B9" s="42"/>
+      <c r="B9" s="41"/>
       <c r="E9" s="53"/>
       <c r="F9" s="53"/>
       <c r="G9" s="53"/>
@@ -2351,12 +3041,12 @@
       <c r="J9" s="53"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
-      <c r="M9" s="43"/>
+      <c r="M9" s="42"/>
       <c r="O9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="12"/>
-      <c r="B10" s="42"/>
+      <c r="B10" s="41"/>
       <c r="E10" s="53"/>
       <c r="F10" s="53"/>
       <c r="G10" s="53"/>
@@ -2365,12 +3055,12 @@
       <c r="J10" s="53"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
-      <c r="M10" s="43"/>
+      <c r="M10" s="42"/>
       <c r="O10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="12"/>
-      <c r="B11" s="42"/>
+      <c r="B11" s="41"/>
       <c r="E11" s="53"/>
       <c r="F11" s="53"/>
       <c r="G11" s="53"/>
@@ -2379,12 +3069,12 @@
       <c r="J11" s="53"/>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
-      <c r="M11" s="43"/>
+      <c r="M11" s="42"/>
       <c r="O11" s="12"/>
     </row>
     <row r="12" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="12"/>
-      <c r="B12" s="42"/>
+      <c r="B12" s="41"/>
       <c r="E12" s="53"/>
       <c r="F12" s="53"/>
       <c r="G12" s="53"/>
@@ -2393,50 +3083,50 @@
       <c r="J12" s="53"/>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
-      <c r="M12" s="43"/>
+      <c r="M12" s="42"/>
       <c r="O12" s="12"/>
     </row>
     <row r="13" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="12"/>
-      <c r="B13" s="42"/>
+      <c r="B13" s="41"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
-      <c r="M13" s="43"/>
+      <c r="M13" s="42"/>
       <c r="O13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="12"/>
-      <c r="B14" s="42"/>
+      <c r="B14" s="41"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
-      <c r="M14" s="43"/>
+      <c r="M14" s="42"/>
       <c r="O14" s="12"/>
     </row>
     <row r="15" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="12"/>
-      <c r="B15" s="42"/>
+      <c r="B15" s="41"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
-      <c r="M15" s="43"/>
+      <c r="M15" s="42"/>
       <c r="O15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="12"/>
-      <c r="B16" s="42"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="19" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
@@ -2447,12 +3137,12 @@
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
-      <c r="M16" s="43"/>
+      <c r="M16" s="42"/>
       <c r="O16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="12"/>
-      <c r="B17" s="42"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
@@ -2463,12 +3153,12 @@
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
-      <c r="M17" s="43"/>
+      <c r="M17" s="42"/>
       <c r="O17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="12"/>
-      <c r="B18" s="42"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
@@ -2479,12 +3169,12 @@
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
-      <c r="M18" s="43"/>
+      <c r="M18" s="42"/>
       <c r="O18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="12"/>
-      <c r="B19" s="42"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
@@ -2492,69 +3182,69 @@
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
-      <c r="M19" s="43"/>
+      <c r="M19" s="42"/>
       <c r="O19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="12"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="43"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="42"/>
       <c r="O20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="12"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="43"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="42"/>
       <c r="O21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="12"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="43"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="42"/>
       <c r="O22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="12"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="43"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="42"/>
       <c r="O23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="12"/>
-      <c r="B24" s="42"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="19" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
@@ -2565,12 +3255,12 @@
       <c r="J24" s="19"/>
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
-      <c r="M24" s="43"/>
+      <c r="M24" s="42"/>
       <c r="O24" s="12"/>
     </row>
     <row r="25" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="12"/>
-      <c r="B25" s="42"/>
+      <c r="B25" s="41"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
@@ -2581,12 +3271,12 @@
       <c r="J25" s="19"/>
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
-      <c r="M25" s="43"/>
+      <c r="M25" s="42"/>
       <c r="O25" s="12"/>
     </row>
     <row r="26" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="12"/>
-      <c r="B26" s="42"/>
+      <c r="B26" s="41"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
@@ -2597,12 +3287,12 @@
       <c r="J26" s="19"/>
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
-      <c r="M26" s="43"/>
+      <c r="M26" s="42"/>
       <c r="O26" s="12"/>
     </row>
     <row r="27" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="12"/>
-      <c r="B27" s="42"/>
+      <c r="B27" s="41"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="12"/>
@@ -2613,12 +3303,12 @@
       <c r="J27" s="12"/>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
-      <c r="M27" s="43"/>
+      <c r="M27" s="42"/>
       <c r="O27" s="12"/>
     </row>
     <row r="28" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="12"/>
-      <c r="B28" s="42"/>
+      <c r="B28" s="41"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
@@ -2629,12 +3319,12 @@
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
-      <c r="M28" s="43"/>
+      <c r="M28" s="42"/>
       <c r="O28" s="12"/>
     </row>
     <row r="29" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="12"/>
-      <c r="B29" s="42"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
@@ -2642,12 +3332,12 @@
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
-      <c r="M29" s="43"/>
+      <c r="M29" s="42"/>
       <c r="O29" s="12"/>
     </row>
     <row r="30" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="12"/>
-      <c r="B30" s="42"/>
+      <c r="B30" s="41"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
@@ -2655,27 +3345,27 @@
       <c r="J30" s="14"/>
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
-      <c r="M30" s="43"/>
+      <c r="M30" s="42"/>
       <c r="O30" s="12"/>
     </row>
     <row r="31" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="12"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="43"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="42"/>
       <c r="O31" s="12"/>
     </row>
     <row r="32" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="12"/>
-      <c r="B32" s="42"/>
+      <c r="B32" s="41"/>
       <c r="C32" s="19" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
@@ -2686,12 +3376,12 @@
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
       <c r="L32" s="19"/>
-      <c r="M32" s="43"/>
+      <c r="M32" s="42"/>
       <c r="O32" s="12"/>
     </row>
     <row r="33" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="12"/>
-      <c r="B33" s="42"/>
+      <c r="B33" s="41"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
@@ -2702,12 +3392,12 @@
       <c r="J33" s="19"/>
       <c r="K33" s="19"/>
       <c r="L33" s="19"/>
-      <c r="M33" s="43"/>
+      <c r="M33" s="42"/>
       <c r="O33" s="12"/>
     </row>
     <row r="34" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="12"/>
-      <c r="B34" s="42"/>
+      <c r="B34" s="41"/>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
@@ -2718,27 +3408,27 @@
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
       <c r="L34" s="19"/>
-      <c r="M34" s="43"/>
+      <c r="M34" s="42"/>
       <c r="O34" s="12"/>
     </row>
     <row r="35" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="12"/>
-      <c r="M35" s="43"/>
+      <c r="M35" s="42"/>
       <c r="O35" s="12"/>
     </row>
     <row r="36" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="12"/>
-      <c r="M36" s="43"/>
+      <c r="M36" s="42"/>
       <c r="O36" s="12"/>
     </row>
     <row r="37" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="12"/>
-      <c r="M37" s="43"/>
+      <c r="M37" s="42"/>
       <c r="O37" s="12"/>
     </row>
     <row r="38" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="12"/>
-      <c r="B38" s="42"/>
+      <c r="B38" s="41"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
@@ -2749,14 +3439,14 @@
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
-      <c r="M38" s="43"/>
+      <c r="M38" s="42"/>
       <c r="O38" s="12"/>
     </row>
     <row r="39" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="12"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
       <c r="E39" s="12"/>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
@@ -2765,14 +3455,14 @@
       <c r="J39" s="12"/>
       <c r="K39" s="14"/>
       <c r="L39" s="14"/>
-      <c r="M39" s="43"/>
+      <c r="M39" s="42"/>
       <c r="O39" s="12"/>
     </row>
     <row r="40" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="12"/>
-      <c r="B40" s="42"/>
+      <c r="B40" s="41"/>
       <c r="C40" s="19" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
@@ -2783,12 +3473,12 @@
       <c r="J40" s="19"/>
       <c r="K40" s="19"/>
       <c r="L40" s="19"/>
-      <c r="M40" s="43"/>
+      <c r="M40" s="42"/>
       <c r="O40" s="12"/>
     </row>
     <row r="41" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="12"/>
-      <c r="B41" s="42"/>
+      <c r="B41" s="41"/>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
@@ -2799,12 +3489,12 @@
       <c r="J41" s="19"/>
       <c r="K41" s="19"/>
       <c r="L41" s="19"/>
-      <c r="M41" s="43"/>
+      <c r="M41" s="42"/>
       <c r="O41" s="12"/>
     </row>
     <row r="42" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="12"/>
-      <c r="B42" s="42"/>
+      <c r="B42" s="41"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
@@ -2815,47 +3505,47 @@
       <c r="J42" s="19"/>
       <c r="K42" s="19"/>
       <c r="L42" s="19"/>
-      <c r="M42" s="43"/>
+      <c r="M42" s="42"/>
       <c r="O42" s="12"/>
     </row>
     <row r="43" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="12"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="43"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="42"/>
       <c r="O43" s="12"/>
     </row>
     <row r="44" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="12"/>
-      <c r="B44" s="42"/>
-      <c r="M44" s="43"/>
+      <c r="B44" s="41"/>
+      <c r="M44" s="42"/>
     </row>
     <row r="45" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="12"/>
-      <c r="B45" s="42"/>
-      <c r="M45" s="43"/>
+      <c r="B45" s="41"/>
+      <c r="M45" s="42"/>
     </row>
     <row r="46" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="12"/>
-      <c r="B46" s="42"/>
-      <c r="M46" s="43"/>
+      <c r="B46" s="41"/>
+      <c r="M46" s="42"/>
     </row>
     <row r="47" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="12"/>
-      <c r="B47" s="42"/>
-      <c r="M47" s="43"/>
+      <c r="B47" s="41"/>
+      <c r="M47" s="42"/>
     </row>
     <row r="48" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="12"/>
-      <c r="B48" s="42"/>
+      <c r="B48" s="41"/>
       <c r="C48" s="19" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
@@ -2866,11 +3556,11 @@
       <c r="J48" s="19"/>
       <c r="K48" s="19"/>
       <c r="L48" s="19"/>
-      <c r="M48" s="43"/>
+      <c r="M48" s="42"/>
     </row>
     <row r="49" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="12"/>
-      <c r="B49" s="42"/>
+      <c r="B49" s="41"/>
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
@@ -2881,11 +3571,11 @@
       <c r="J49" s="19"/>
       <c r="K49" s="19"/>
       <c r="L49" s="19"/>
-      <c r="M49" s="43"/>
+      <c r="M49" s="42"/>
     </row>
     <row r="50" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="12"/>
-      <c r="B50" s="42"/>
+      <c r="B50" s="41"/>
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
       <c r="E50" s="19"/>
@@ -2896,22 +3586,22 @@
       <c r="J50" s="19"/>
       <c r="K50" s="19"/>
       <c r="L50" s="19"/>
-      <c r="M50" s="43"/>
+      <c r="M50" s="42"/>
     </row>
     <row r="51" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="12"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="47"/>
-      <c r="K51" s="47"/>
-      <c r="L51" s="47"/>
-      <c r="M51" s="49"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="46"/>
+      <c r="J51" s="46"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="46"/>
+      <c r="M51" s="48"/>
     </row>
     <row r="52" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="12"/>
@@ -3072,75 +3762,75 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:W60"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.05"/>
   <cols>
-    <col collapsed="false" hidden="false" max="22" min="1" style="0" width="11.7592592592593"/>
-    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="22" min="1" style="0" width="12.0518518518519"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="9.01481481481481"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J1" s="12"/>
     </row>
     <row r="2" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="39" t="s">
-        <v>36</v>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="38" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="39"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="38"/>
     </row>
     <row r="4" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="39"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="38"/>
     </row>
     <row r="5" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="12"/>
-      <c r="B5" s="42"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -3151,11 +3841,11 @@
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
-      <c r="M5" s="43"/>
+      <c r="M5" s="42"/>
     </row>
     <row r="6" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="12"/>
-      <c r="B6" s="42"/>
+      <c r="B6" s="41"/>
       <c r="F6" s="12"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
@@ -3163,11 +3853,11 @@
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
-      <c r="M6" s="43"/>
+      <c r="M6" s="42"/>
     </row>
     <row r="7" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="12"/>
-      <c r="B7" s="42"/>
+      <c r="B7" s="41"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -3175,33 +3865,33 @@
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
-      <c r="M7" s="43"/>
+      <c r="M7" s="42"/>
     </row>
     <row r="8" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="12"/>
-      <c r="B8" s="42"/>
-      <c r="F8" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="29"/>
+      <c r="B8" s="41"/>
+      <c r="F8" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="30"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
-      <c r="M8" s="43"/>
+      <c r="M8" s="42"/>
     </row>
     <row r="9" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="12"/>
-      <c r="B9" s="42"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="29"/>
+      <c r="B9" s="41"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="30"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
-      <c r="M9" s="43"/>
+      <c r="M9" s="42"/>
       <c r="O9" s="12"/>
       <c r="P9" s="23"/>
       <c r="Q9" s="23"/>
@@ -3214,15 +3904,15 @@
     </row>
     <row r="10" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="12"/>
-      <c r="B10" s="42"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="29"/>
+      <c r="B10" s="41"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="30"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
-      <c r="M10" s="43"/>
+      <c r="M10" s="42"/>
       <c r="O10" s="12"/>
       <c r="P10" s="23"/>
       <c r="Q10" s="23"/>
@@ -3235,15 +3925,15 @@
     </row>
     <row r="11" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="12"/>
-      <c r="B11" s="42"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="29"/>
+      <c r="B11" s="41"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="30"/>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
-      <c r="M11" s="43"/>
+      <c r="M11" s="42"/>
       <c r="O11" s="12"/>
       <c r="P11" s="23"/>
       <c r="Q11" s="23"/>
@@ -3256,15 +3946,15 @@
     </row>
     <row r="12" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="12"/>
-      <c r="B12" s="42"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="29"/>
+      <c r="B12" s="41"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="30"/>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
-      <c r="M12" s="43"/>
+      <c r="M12" s="42"/>
       <c r="O12" s="12"/>
       <c r="P12" s="23"/>
       <c r="Q12" s="23"/>
@@ -3277,7 +3967,7 @@
     </row>
     <row r="13" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="12"/>
-      <c r="B13" s="42"/>
+      <c r="B13" s="41"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
@@ -3285,7 +3975,7 @@
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
-      <c r="M13" s="43"/>
+      <c r="M13" s="42"/>
       <c r="O13" s="12"/>
       <c r="P13" s="23"/>
       <c r="Q13" s="23"/>
@@ -3298,7 +3988,7 @@
     </row>
     <row r="14" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="12"/>
-      <c r="B14" s="42"/>
+      <c r="B14" s="41"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -3306,7 +3996,7 @@
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
-      <c r="M14" s="43"/>
+      <c r="M14" s="42"/>
       <c r="O14" s="12"/>
       <c r="P14" s="23"/>
       <c r="Q14" s="23"/>
@@ -3319,14 +4009,14 @@
     </row>
     <row r="15" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="12"/>
-      <c r="B15" s="42"/>
+      <c r="B15" s="41"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
-      <c r="M15" s="43"/>
+      <c r="M15" s="42"/>
       <c r="O15" s="12"/>
       <c r="P15" s="23"/>
       <c r="Q15" s="23"/>
@@ -3339,9 +4029,9 @@
     </row>
     <row r="16" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="12"/>
-      <c r="B16" s="42"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="19" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
@@ -3352,7 +4042,7 @@
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
-      <c r="M16" s="43"/>
+      <c r="M16" s="42"/>
       <c r="O16" s="12"/>
       <c r="P16" s="23"/>
       <c r="Q16" s="23"/>
@@ -3365,7 +4055,7 @@
     </row>
     <row r="17" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="12"/>
-      <c r="B17" s="42"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
@@ -3376,11 +4066,11 @@
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
-      <c r="M17" s="43"/>
+      <c r="M17" s="42"/>
     </row>
     <row r="18" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="12"/>
-      <c r="B18" s="42"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
@@ -3391,11 +4081,11 @@
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
-      <c r="M18" s="43"/>
+      <c r="M18" s="42"/>
     </row>
     <row r="19" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="12"/>
-      <c r="B19" s="42"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
@@ -3403,64 +4093,64 @@
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
-      <c r="M19" s="43"/>
+      <c r="M19" s="42"/>
     </row>
     <row r="20" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="12"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="43"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="42"/>
     </row>
     <row r="21" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="12"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="43"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="42"/>
     </row>
     <row r="22" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="12"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="43"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="42"/>
     </row>
     <row r="23" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="12"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="43"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="42"/>
     </row>
     <row r="24" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="12"/>
-      <c r="B24" s="42"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="19" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
@@ -3471,11 +4161,11 @@
       <c r="J24" s="19"/>
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
-      <c r="M24" s="43"/>
+      <c r="M24" s="42"/>
     </row>
     <row r="25" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="12"/>
-      <c r="B25" s="42"/>
+      <c r="B25" s="41"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
@@ -3486,11 +4176,11 @@
       <c r="J25" s="19"/>
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
-      <c r="M25" s="43"/>
+      <c r="M25" s="42"/>
     </row>
     <row r="26" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="12"/>
-      <c r="B26" s="42"/>
+      <c r="B26" s="41"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
@@ -3501,11 +4191,11 @@
       <c r="J26" s="19"/>
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
-      <c r="M26" s="43"/>
+      <c r="M26" s="42"/>
     </row>
     <row r="27" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="12"/>
-      <c r="B27" s="42"/>
+      <c r="B27" s="41"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="12"/>
@@ -3516,11 +4206,11 @@
       <c r="J27" s="12"/>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
-      <c r="M27" s="43"/>
+      <c r="M27" s="42"/>
     </row>
     <row r="28" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="12"/>
-      <c r="B28" s="42"/>
+      <c r="B28" s="41"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
@@ -3531,11 +4221,11 @@
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
-      <c r="M28" s="43"/>
+      <c r="M28" s="42"/>
     </row>
     <row r="29" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="12"/>
-      <c r="B29" s="42"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
@@ -3543,11 +4233,11 @@
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
-      <c r="M29" s="43"/>
+      <c r="M29" s="42"/>
     </row>
     <row r="30" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="12"/>
-      <c r="B30" s="42"/>
+      <c r="B30" s="41"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
@@ -3555,25 +4245,25 @@
       <c r="J30" s="14"/>
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
-      <c r="M30" s="43"/>
+      <c r="M30" s="42"/>
     </row>
     <row r="31" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="12"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="43"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="42"/>
     </row>
     <row r="32" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="12"/>
-      <c r="B32" s="42"/>
+      <c r="B32" s="41"/>
       <c r="C32" s="19" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
@@ -3584,11 +4274,11 @@
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
       <c r="L32" s="19"/>
-      <c r="M32" s="43"/>
+      <c r="M32" s="42"/>
     </row>
     <row r="33" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="12"/>
-      <c r="B33" s="42"/>
+      <c r="B33" s="41"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
@@ -3599,11 +4289,11 @@
       <c r="J33" s="19"/>
       <c r="K33" s="19"/>
       <c r="L33" s="19"/>
-      <c r="M33" s="43"/>
+      <c r="M33" s="42"/>
     </row>
     <row r="34" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="12"/>
-      <c r="B34" s="42"/>
+      <c r="B34" s="41"/>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
@@ -3614,26 +4304,26 @@
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
       <c r="L34" s="19"/>
-      <c r="M34" s="43"/>
+      <c r="M34" s="42"/>
     </row>
     <row r="35" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="12"/>
-      <c r="B35" s="42"/>
-      <c r="M35" s="43"/>
+      <c r="B35" s="41"/>
+      <c r="M35" s="42"/>
     </row>
     <row r="36" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="12"/>
-      <c r="B36" s="42"/>
-      <c r="M36" s="43"/>
+      <c r="B36" s="41"/>
+      <c r="M36" s="42"/>
     </row>
     <row r="37" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="12"/>
-      <c r="B37" s="42"/>
-      <c r="M37" s="43"/>
+      <c r="B37" s="41"/>
+      <c r="M37" s="42"/>
     </row>
     <row r="38" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="12"/>
-      <c r="B38" s="42"/>
+      <c r="B38" s="41"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
@@ -3644,13 +4334,13 @@
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
-      <c r="M38" s="43"/>
+      <c r="M38" s="42"/>
     </row>
     <row r="39" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="12"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
       <c r="E39" s="12"/>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
@@ -3659,13 +4349,13 @@
       <c r="J39" s="12"/>
       <c r="K39" s="14"/>
       <c r="L39" s="14"/>
-      <c r="M39" s="43"/>
+      <c r="M39" s="42"/>
     </row>
     <row r="40" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="12"/>
-      <c r="B40" s="42"/>
+      <c r="B40" s="41"/>
       <c r="C40" s="19" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
@@ -3676,11 +4366,11 @@
       <c r="J40" s="19"/>
       <c r="K40" s="19"/>
       <c r="L40" s="19"/>
-      <c r="M40" s="43"/>
+      <c r="M40" s="42"/>
     </row>
     <row r="41" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="12"/>
-      <c r="B41" s="42"/>
+      <c r="B41" s="41"/>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
@@ -3691,11 +4381,11 @@
       <c r="J41" s="19"/>
       <c r="K41" s="19"/>
       <c r="L41" s="19"/>
-      <c r="M41" s="43"/>
+      <c r="M41" s="42"/>
     </row>
     <row r="42" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="12"/>
-      <c r="B42" s="42"/>
+      <c r="B42" s="41"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
@@ -3706,45 +4396,45 @@
       <c r="J42" s="19"/>
       <c r="K42" s="19"/>
       <c r="L42" s="19"/>
-      <c r="M42" s="43"/>
+      <c r="M42" s="42"/>
     </row>
     <row r="43" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="12"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="43"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="42"/>
     </row>
     <row r="44" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="12"/>
-      <c r="B44" s="42"/>
-      <c r="M44" s="43"/>
+      <c r="B44" s="41"/>
+      <c r="M44" s="42"/>
     </row>
     <row r="45" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="12"/>
-      <c r="B45" s="42"/>
-      <c r="M45" s="43"/>
+      <c r="B45" s="41"/>
+      <c r="M45" s="42"/>
     </row>
     <row r="46" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="12"/>
-      <c r="B46" s="42"/>
-      <c r="M46" s="43"/>
+      <c r="B46" s="41"/>
+      <c r="M46" s="42"/>
     </row>
     <row r="47" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="12"/>
-      <c r="B47" s="42"/>
-      <c r="M47" s="43"/>
+      <c r="B47" s="41"/>
+      <c r="M47" s="42"/>
     </row>
     <row r="48" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="12"/>
-      <c r="B48" s="42"/>
+      <c r="B48" s="41"/>
       <c r="C48" s="19" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
@@ -3755,11 +4445,11 @@
       <c r="J48" s="19"/>
       <c r="K48" s="19"/>
       <c r="L48" s="19"/>
-      <c r="M48" s="43"/>
+      <c r="M48" s="42"/>
     </row>
     <row r="49" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="12"/>
-      <c r="B49" s="42"/>
+      <c r="B49" s="41"/>
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
@@ -3770,11 +4460,11 @@
       <c r="J49" s="19"/>
       <c r="K49" s="19"/>
       <c r="L49" s="19"/>
-      <c r="M49" s="43"/>
+      <c r="M49" s="42"/>
     </row>
     <row r="50" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="12"/>
-      <c r="B50" s="42"/>
+      <c r="B50" s="41"/>
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
       <c r="E50" s="19"/>
@@ -3785,22 +4475,22 @@
       <c r="J50" s="19"/>
       <c r="K50" s="19"/>
       <c r="L50" s="19"/>
-      <c r="M50" s="43"/>
+      <c r="M50" s="42"/>
     </row>
     <row r="51" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="12"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="47"/>
-      <c r="K51" s="47"/>
-      <c r="L51" s="47"/>
-      <c r="M51" s="49"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="46"/>
+      <c r="J51" s="46"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="46"/>
+      <c r="M51" s="48"/>
     </row>
     <row r="52" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="12"/>
@@ -3961,7 +4651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3974,8 +4664,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.05"/>
   <cols>
-    <col collapsed="false" hidden="false" max="22" min="1" style="0" width="11.7592592592593"/>
-    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="22" min="1" style="0" width="12.0518518518519"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="9.01481481481481"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3996,7 +4686,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4048,8 +4738,8 @@
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
@@ -4072,13 +4762,13 @@
     <row r="8" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="12"/>
       <c r="B8" s="10"/>
-      <c r="F8" s="51" t="s">
+      <c r="F8" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="29"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="30"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="13"/>
@@ -4086,11 +4776,11 @@
     <row r="9" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="12"/>
       <c r="B9" s="10"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="29"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="30"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
       <c r="M9" s="13"/>
@@ -4098,11 +4788,11 @@
     <row r="10" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="12"/>
       <c r="B10" s="10"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="29"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="30"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
       <c r="M10" s="13"/>
@@ -4110,11 +4800,11 @@
     <row r="11" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="12"/>
       <c r="B11" s="10"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="29"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="30"/>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="13"/>
@@ -4122,11 +4812,11 @@
     <row r="12" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="12"/>
       <c r="B12" s="10"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="29"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="30"/>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
       <c r="M12" s="13"/>
@@ -4160,7 +4850,7 @@
       <c r="B15" s="10"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="29"/>
+      <c r="E15" s="30"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
@@ -4175,9 +4865,9 @@
       <c r="B16" s="10"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="29"/>
+      <c r="E16" s="30"/>
       <c r="F16" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
@@ -4192,7 +4882,7 @@
       <c r="B17" s="10"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="29"/>
+      <c r="E17" s="30"/>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
@@ -4207,11 +4897,11 @@
       <c r="B18" s="10"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
@@ -4222,11 +4912,11 @@
       <c r="B19" s="10"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
@@ -4236,9 +4926,9 @@
       <c r="B20" s="10"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="29"/>
+      <c r="E20" s="30"/>
       <c r="F20" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
@@ -4253,7 +4943,7 @@
       <c r="B21" s="10"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="29"/>
+      <c r="E21" s="30"/>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
@@ -4305,7 +4995,7 @@
       <c r="L23" s="12"/>
       <c r="M23" s="13"/>
       <c r="P23" s="5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
@@ -4322,7 +5012,7 @@
       <c r="D24" s="14"/>
       <c r="E24" s="12"/>
       <c r="F24" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
@@ -4366,8 +5056,8 @@
     <row r="26" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="12"/>
       <c r="B26" s="10"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
       <c r="J26" s="12"/>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
@@ -4428,9 +5118,9 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
       <c r="T29" s="12"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="27"/>
-      <c r="W29" s="27"/>
+      <c r="U29" s="55"/>
+      <c r="V29" s="55"/>
+      <c r="W29" s="55"/>
     </row>
     <row r="30" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="12"/>
@@ -4449,9 +5139,9 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
       <c r="T30" s="12"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="27"/>
-      <c r="W30" s="27"/>
+      <c r="U30" s="55"/>
+      <c r="V30" s="55"/>
+      <c r="W30" s="55"/>
     </row>
     <row r="31" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="12"/>
@@ -4992,7 +5682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -5000,67 +5690,67 @@
   <dimension ref="A1:Y60"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C53" activeCellId="0" sqref="C53"/>
+      <selection pane="topLeft" activeCell="E39" activeCellId="0" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.05"/>
   <cols>
-    <col collapsed="false" hidden="false" max="23" min="1" style="0" width="11.7592592592593"/>
-    <col collapsed="false" hidden="false" max="1025" min="24" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="23" min="1" style="0" width="12.0518518518519"/>
+    <col collapsed="false" hidden="false" max="1025" min="24" style="0" width="9.01481481481481"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J1" s="12"/>
     </row>
     <row r="2" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="39" t="s">
-        <v>36</v>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="38" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="39"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="38"/>
     </row>
     <row r="4" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="39"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="38"/>
     </row>
     <row r="5" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="12"/>
-      <c r="B5" s="40"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -5071,519 +5761,482 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
-      <c r="M5" s="41"/>
+      <c r="M5" s="40"/>
     </row>
     <row r="6" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="12"/>
-      <c r="B6" s="42"/>
-      <c r="G6" s="29"/>
+      <c r="B6" s="41"/>
+      <c r="G6" s="30"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
-      <c r="M6" s="43"/>
+      <c r="M6" s="42"/>
     </row>
     <row r="7" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="12"/>
-      <c r="B7" s="42"/>
+      <c r="B7" s="41"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
-      <c r="M7" s="43"/>
+      <c r="M7" s="42"/>
     </row>
     <row r="8" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="42"/>
-      <c r="F8" s="51" t="s">
+      <c r="B8" s="41"/>
+      <c r="F8" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
       <c r="L8" s="12"/>
-      <c r="M8" s="43"/>
+      <c r="M8" s="42"/>
     </row>
     <row r="9" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="42"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
+      <c r="B9" s="41"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
       <c r="L9" s="12"/>
-      <c r="M9" s="43"/>
+      <c r="M9" s="42"/>
     </row>
     <row r="10" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="42"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
+      <c r="B10" s="41"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
       <c r="L10" s="12"/>
-      <c r="M10" s="43"/>
+      <c r="M10" s="42"/>
     </row>
     <row r="11" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="42"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="29"/>
+      <c r="B11" s="41"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="30"/>
       <c r="K11" s="14"/>
       <c r="L11" s="12"/>
-      <c r="M11" s="43"/>
+      <c r="M11" s="42"/>
     </row>
     <row r="12" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="42"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="29"/>
+      <c r="B12" s="41"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="30"/>
       <c r="K12" s="14"/>
       <c r="L12" s="12"/>
-      <c r="M12" s="43"/>
+      <c r="M12" s="42"/>
     </row>
     <row r="13" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="42"/>
+      <c r="B13" s="41"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
-      <c r="M13" s="43"/>
+      <c r="M13" s="42"/>
     </row>
     <row r="14" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="42"/>
+      <c r="B14" s="41"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
-      <c r="M14" s="43"/>
+      <c r="M14" s="42"/>
     </row>
     <row r="15" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="12"/>
-      <c r="B15" s="42"/>
+      <c r="B15" s="41"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
-      <c r="M15" s="43"/>
+      <c r="M15" s="42"/>
     </row>
     <row r="16" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="12"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="43"/>
+      <c r="B16" s="41"/>
+      <c r="F16" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="M16" s="42"/>
     </row>
     <row r="17" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="12"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="G17" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="M17" s="43"/>
+      <c r="B17" s="41"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="M17" s="42"/>
     </row>
     <row r="18" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="12"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="M18" s="43"/>
+      <c r="B18" s="41"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="M18" s="42"/>
       <c r="O18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="12"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="M19" s="43"/>
+      <c r="B19" s="41"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="M19" s="42"/>
       <c r="O19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="12"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="M20" s="43"/>
+      <c r="B20" s="41"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="M20" s="42"/>
       <c r="O20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="12"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="M21" s="43"/>
+      <c r="B21" s="41"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="M21" s="42"/>
       <c r="O21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="12"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="M22" s="43"/>
+      <c r="B22" s="41"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="M22" s="42"/>
       <c r="O22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="12"/>
-      <c r="B23" s="42"/>
-      <c r="M23" s="43"/>
+      <c r="B23" s="41"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="M23" s="42"/>
       <c r="O23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="12"/>
-      <c r="B24" s="42"/>
-      <c r="M24" s="43"/>
+      <c r="B24" s="41"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="M24" s="42"/>
       <c r="O24" s="12"/>
     </row>
     <row r="25" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="12"/>
-      <c r="B25" s="42"/>
-      <c r="M25" s="43"/>
+      <c r="B25" s="41"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="M25" s="42"/>
       <c r="O25" s="12"/>
     </row>
     <row r="26" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="12"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="M26" s="43"/>
+      <c r="B26" s="41"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="M26" s="42"/>
       <c r="O26" s="12"/>
     </row>
     <row r="27" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="12"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="G27" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="M27" s="43"/>
+      <c r="B27" s="41"/>
+      <c r="M27" s="42"/>
       <c r="O27" s="12"/>
     </row>
     <row r="28" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="12"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="M28" s="43"/>
+      <c r="B28" s="41"/>
+      <c r="M28" s="42"/>
       <c r="O28" s="12"/>
     </row>
     <row r="29" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="12"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="M29" s="43"/>
+      <c r="B29" s="41"/>
+      <c r="M29" s="42"/>
       <c r="O29" s="12"/>
     </row>
     <row r="30" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="12"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="M30" s="43"/>
+      <c r="B30" s="41"/>
+      <c r="E30" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="M30" s="42"/>
       <c r="O30" s="12"/>
     </row>
     <row r="31" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="12"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
+      <c r="B31" s="41"/>
       <c r="E31" s="19"/>
-      <c r="M31" s="43"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="M31" s="42"/>
       <c r="O31" s="12"/>
     </row>
     <row r="32" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="12"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
+      <c r="B32" s="41"/>
       <c r="E32" s="19"/>
-      <c r="M32" s="43"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="M32" s="42"/>
       <c r="O32" s="12"/>
     </row>
     <row r="33" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="12"/>
-      <c r="B33" s="42"/>
-      <c r="M33" s="43"/>
+      <c r="B33" s="41"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="M33" s="42"/>
       <c r="O33" s="12"/>
     </row>
     <row r="34" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="12"/>
-      <c r="B34" s="42"/>
-      <c r="M34" s="43"/>
+      <c r="B34" s="41"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="M34" s="42"/>
       <c r="O34" s="12"/>
     </row>
     <row r="35" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="12"/>
-      <c r="B35" s="42"/>
-      <c r="M35" s="43"/>
+      <c r="B35" s="41"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="M35" s="42"/>
       <c r="O35" s="12"/>
     </row>
     <row r="36" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="12"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="19"/>
+      <c r="B36" s="41"/>
       <c r="E36" s="19"/>
-      <c r="M36" s="43"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="M36" s="42"/>
       <c r="O36" s="12"/>
     </row>
     <row r="37" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="12"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
+      <c r="B37" s="41"/>
       <c r="E37" s="19"/>
-      <c r="G37" s="19" t="s">
-        <v>47</v>
-      </c>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="M37" s="43"/>
+      <c r="M37" s="42"/>
       <c r="O37" s="12"/>
     </row>
     <row r="38" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="12"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
+      <c r="B38" s="41"/>
       <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
       <c r="G38" s="19"/>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="M38" s="43"/>
+      <c r="M38" s="42"/>
       <c r="O38" s="12"/>
     </row>
     <row r="39" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="12"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="M39" s="43"/>
+      <c r="B39" s="41"/>
+      <c r="M39" s="42"/>
       <c r="O39" s="12"/>
     </row>
     <row r="40" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="12"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="M40" s="43"/>
+      <c r="B40" s="41"/>
+      <c r="M40" s="42"/>
       <c r="O40" s="12"/>
     </row>
     <row r="41" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="12"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="M41" s="43"/>
+      <c r="B41" s="41"/>
+      <c r="M41" s="42"/>
       <c r="O41" s="12"/>
     </row>
     <row r="42" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="12"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="M42" s="43"/>
+      <c r="B42" s="41"/>
+      <c r="M42" s="42"/>
       <c r="O42" s="12"/>
     </row>
     <row r="43" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="12"/>
-      <c r="B43" s="42"/>
-      <c r="M43" s="43"/>
+      <c r="B43" s="41"/>
+      <c r="M43" s="42"/>
       <c r="O43" s="12"/>
     </row>
     <row r="44" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="12"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="43"/>
+      <c r="B44" s="41"/>
+      <c r="F44" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
+      <c r="M44" s="42"/>
       <c r="O44" s="12"/>
     </row>
     <row r="45" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="12"/>
-      <c r="B45" s="42"/>
-      <c r="M45" s="43"/>
+      <c r="B45" s="41"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="51"/>
+      <c r="M45" s="42"/>
       <c r="O45" s="12"/>
     </row>
     <row r="46" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="12"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="M46" s="43"/>
+      <c r="B46" s="41"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="51"/>
+      <c r="M46" s="42"/>
       <c r="O46" s="12"/>
     </row>
     <row r="47" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="12"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="G47" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="M47" s="43"/>
+      <c r="B47" s="41"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
+      <c r="M47" s="42"/>
       <c r="O47" s="12"/>
     </row>
     <row r="48" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="12"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="M48" s="43"/>
+      <c r="B48" s="41"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="51"/>
+      <c r="M48" s="42"/>
       <c r="O48" s="12"/>
     </row>
     <row r="49" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="12"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="M49" s="43"/>
+      <c r="B49" s="41"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="51"/>
+      <c r="M49" s="42"/>
       <c r="O49" s="12"/>
     </row>
     <row r="50" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="12"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="M50" s="43"/>
+      <c r="B50" s="41"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="51"/>
+      <c r="M50" s="42"/>
       <c r="O50" s="12"/>
     </row>
     <row r="51" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="12"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="M51" s="43"/>
+      <c r="B51" s="41"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="51"/>
+      <c r="M51" s="42"/>
       <c r="O51" s="12"/>
     </row>
     <row r="52" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="12"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
-      <c r="I52" s="47"/>
-      <c r="J52" s="47"/>
-      <c r="K52" s="47"/>
-      <c r="L52" s="47"/>
-      <c r="M52" s="49"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="46"/>
+      <c r="L52" s="46"/>
+      <c r="M52" s="48"/>
       <c r="O52" s="12"/>
     </row>
     <row r="53" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5617,7 +6270,7 @@
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
-      <c r="F54" s="12"/>
+      <c r="F54" s="14"/>
       <c r="G54" s="14"/>
       <c r="H54" s="14"/>
       <c r="I54" s="14"/>
@@ -5647,11 +6300,11 @@
       <c r="C56" s="52"/>
       <c r="D56" s="52"/>
       <c r="E56" s="52"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="52"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="16"/>
@@ -5713,7 +6366,7 @@
       <c r="M60" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="14">
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:I4"/>
@@ -5722,14 +6375,10 @@
     <mergeCell ref="L2:L4"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="F8:I12"/>
-    <mergeCell ref="C16:E22"/>
-    <mergeCell ref="G17:K19"/>
-    <mergeCell ref="C26:E32"/>
-    <mergeCell ref="G27:K29"/>
-    <mergeCell ref="C36:E42"/>
-    <mergeCell ref="G37:K39"/>
-    <mergeCell ref="C46:E52"/>
-    <mergeCell ref="G47:K49"/>
+    <mergeCell ref="F16:I26"/>
+    <mergeCell ref="E30:J38"/>
+    <mergeCell ref="F44:I52"/>
+    <mergeCell ref="F53:I54"/>
     <mergeCell ref="C58:E59"/>
     <mergeCell ref="K58:L59"/>
   </mergeCells>
@@ -5751,12 +6400,12 @@
   <dimension ref="B2:P42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T25" activeCellId="0" sqref="T25"/>
+      <selection pane="topLeft" activeCell="F36" activeCellId="0" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.05"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.7592592592593"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.0518518518519"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5845,14 +6494,12 @@
       <c r="B7" s="10"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="12"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="13"/>
@@ -5861,12 +6508,10 @@
       <c r="B8" s="10"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="12"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="13"/>
@@ -5875,12 +6520,10 @@
       <c r="B9" s="10"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="12"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="13"/>
@@ -5889,12 +6532,10 @@
       <c r="B10" s="10"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="14"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
       <c r="K10" s="14"/>
       <c r="L10" s="12"/>
       <c r="M10" s="13"/>
@@ -5903,12 +6544,6 @@
       <c r="B11" s="10"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="14"/>
       <c r="K11" s="14"/>
       <c r="L11" s="12"/>
       <c r="M11" s="13"/>
@@ -5917,12 +6552,6 @@
       <c r="B12" s="10"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="14"/>
       <c r="K12" s="14"/>
       <c r="L12" s="12"/>
       <c r="M12" s="13"/>
@@ -5931,12 +6560,6 @@
       <c r="B13" s="10"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="13"/>
@@ -5945,86 +6568,48 @@
       <c r="B14" s="10"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
       <c r="M14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="10"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="18"/>
+      <c r="F15" s="18" t="s">
+        <v>14</v>
+      </c>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
       <c r="M15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="10"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
       <c r="M16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="10"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
       <c r="M17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="10"/>
-      <c r="C18" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
       <c r="M18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="10"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
       <c r="M19" s="13"/>
       <c r="P19" s="0" t="s">
         <v>15</v>
@@ -6032,58 +6617,34 @@
     </row>
     <row r="20" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="10"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
       <c r="M20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="10"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
       <c r="M21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="10"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
       <c r="M22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="10"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
       <c r="M23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6095,9 +6656,6 @@
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
       <c r="M24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6109,9 +6667,6 @@
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
       <c r="M25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6123,81 +6678,78 @@
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
       <c r="M26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="10"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
+      <c r="C27" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
       <c r="M27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="10"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
       <c r="M28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="10"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
       <c r="M29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="10"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
       <c r="M30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="10"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
       <c r="M31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6205,10 +6757,6 @@
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
       <c r="J32" s="12"/>
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
@@ -6219,10 +6767,6 @@
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
       <c r="E33" s="12"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
       <c r="J33" s="12"/>
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
@@ -6233,10 +6777,6 @@
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
       <c r="L34" s="12"/>
@@ -6247,10 +6787,6 @@
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
@@ -6261,6 +6797,12 @@
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
+      <c r="F36" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
       <c r="L36" s="12"/>
@@ -6271,10 +6813,10 @@
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
       <c r="L37" s="12"/>
@@ -6282,16 +6824,16 @@
     </row>
     <row r="38" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="10"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
       <c r="M38" s="13"/>
     </row>
     <row r="39" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6363,10 +6905,10 @@
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="L2:L4"/>
     <mergeCell ref="M2:M4"/>
-    <mergeCell ref="F7:I15"/>
-    <mergeCell ref="C18:L22"/>
-    <mergeCell ref="F27:I35"/>
-    <mergeCell ref="C38:L38"/>
+    <mergeCell ref="F7:I10"/>
+    <mergeCell ref="F15:I23"/>
+    <mergeCell ref="C27:L31"/>
+    <mergeCell ref="F36:I38"/>
     <mergeCell ref="C40:E41"/>
     <mergeCell ref="K40:L41"/>
   </mergeCells>
@@ -6385,15 +6927,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:P42"/>
+  <dimension ref="B1:P43"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N31" activeCellId="0" sqref="N31"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.05"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.7592592592593"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.0518518518519"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6483,127 +7025,67 @@
     </row>
     <row r="7" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="10"/>
-      <c r="C7" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
+      <c r="F7" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
       <c r="M7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="10"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
       <c r="M8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="10"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
       <c r="M9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="10"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
       <c r="M10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="10"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
       <c r="M11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="10"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
       <c r="M12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="10"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
       <c r="M13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="10"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
+      <c r="C14" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
       <c r="M14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="10"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="19"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="G15" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
       <c r="J15" s="19"/>
@@ -6613,10 +7095,9 @@
     </row>
     <row r="16" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="10"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="12"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -6627,183 +7108,169 @@
     </row>
     <row r="17" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="10"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
       <c r="M17" s="13"/>
       <c r="P17" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="10"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
       <c r="M18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="10"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
       <c r="M19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="10"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
       <c r="M20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="10"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
       <c r="M21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="10"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
       <c r="M22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="10"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
       <c r="M23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="10"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
       <c r="M24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="10"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="G25" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
       <c r="M25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="10"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="12"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
       <c r="F26" s="12"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
       <c r="M26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="10"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="12"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
       <c r="F27" s="12"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
       <c r="M27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="10"/>
-      <c r="C28" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
       <c r="F28" s="12"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="12"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
       <c r="M28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="10"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
       <c r="F29" s="12"/>
-      <c r="G29" s="19" t="s">
-        <v>17</v>
-      </c>
+      <c r="G29" s="19"/>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="19"/>
@@ -6813,9 +7280,9 @@
     </row>
     <row r="30" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="10"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
       <c r="F30" s="12"/>
       <c r="G30" s="19"/>
       <c r="H30" s="19"/>
@@ -6827,9 +7294,9 @@
     </row>
     <row r="31" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="10"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
       <c r="F31" s="12"/>
       <c r="G31" s="19"/>
       <c r="H31" s="19"/>
@@ -6841,9 +7308,9 @@
     </row>
     <row r="32" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="10"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
       <c r="F32" s="12"/>
       <c r="G32" s="19"/>
       <c r="H32" s="19"/>
@@ -6855,9 +7322,9 @@
     </row>
     <row r="33" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="10"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
       <c r="F33" s="12"/>
       <c r="G33" s="19"/>
       <c r="H33" s="19"/>
@@ -6869,69 +7336,62 @@
     </row>
     <row r="34" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="10"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
       <c r="F34" s="12"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
       <c r="M34" s="13"/>
     </row>
     <row r="35" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="10"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
       <c r="F35" s="12"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
+      <c r="G35" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
       <c r="M35" s="13"/>
     </row>
     <row r="36" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="10"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
       <c r="F36" s="12"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
       <c r="M36" s="13"/>
     </row>
     <row r="37" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="10"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
       <c r="F37" s="12"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
       <c r="M37" s="13"/>
     </row>
     <row r="38" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="10"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
       <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
       <c r="M38" s="13"/>
     </row>
     <row r="39" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6994,8 +7454,16 @@
       <c r="L42" s="1"/>
       <c r="M42" s="16"/>
     </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:I4"/>
@@ -7003,10 +7471,11 @@
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="L2:L4"/>
     <mergeCell ref="M2:M4"/>
-    <mergeCell ref="C7:E23"/>
-    <mergeCell ref="G8:L16"/>
-    <mergeCell ref="C28:E38"/>
-    <mergeCell ref="G29:L37"/>
+    <mergeCell ref="F7:I10"/>
+    <mergeCell ref="C14:E36"/>
+    <mergeCell ref="G15:L23"/>
+    <mergeCell ref="G25:L33"/>
+    <mergeCell ref="G35:L38"/>
     <mergeCell ref="C40:E41"/>
     <mergeCell ref="K40:L41"/>
   </mergeCells>
@@ -7027,14 +7496,14 @@
   </sheetPr>
   <dimension ref="B2:M42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.05"/>
   <cols>
-    <col collapsed="false" hidden="false" max="22" min="1" style="0" width="11.7592592592593"/>
-    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="22" min="1" style="0" width="12.0518518518519"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="9.01481481481481"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7059,7 +7528,7 @@
       <c r="L2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="29" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7075,7 +7544,7 @@
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
       <c r="L3" s="21"/>
-      <c r="M3" s="28"/>
+      <c r="M3" s="29"/>
     </row>
     <row r="4" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="2"/>
@@ -7089,7 +7558,7 @@
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
       <c r="L4" s="21"/>
-      <c r="M4" s="28"/>
+      <c r="M4" s="29"/>
     </row>
     <row r="5" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="7"/>
@@ -7107,13 +7576,8 @@
     </row>
     <row r="6" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="10"/>
-      <c r="C6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
@@ -7123,13 +7587,12 @@
     </row>
     <row r="7" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
+      <c r="F7" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
@@ -7137,56 +7600,42 @@
     </row>
     <row r="8" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
       <c r="L8" s="12"/>
       <c r="M8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
       <c r="L9" s="12"/>
       <c r="M9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
       <c r="L10" s="12"/>
       <c r="M10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
@@ -7195,11 +7644,8 @@
     </row>
     <row r="12" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -7209,11 +7655,8 @@
     </row>
     <row r="13" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="12"/>
@@ -7223,88 +7666,86 @@
     </row>
     <row r="14" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="10"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
+      <c r="C14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
       <c r="M14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="10"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
       <c r="M15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="10"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="19" t="s">
-        <v>21</v>
-      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
       <c r="H16" s="19"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
       <c r="M16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="10"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
       <c r="M17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="10"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
       <c r="M18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="10"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
       <c r="M19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7395,88 +7836,85 @@
     </row>
     <row r="26" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="10"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
+      <c r="C26" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
       <c r="M26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="10"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
       <c r="M27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="10"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="19" t="s">
-        <v>23</v>
-      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
       <c r="H28" s="19"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
       <c r="M28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="10"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
       <c r="M29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="10"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
       <c r="M30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="10"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
       <c r="M31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7567,16 +8005,16 @@
     </row>
     <row r="38" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="10"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
       <c r="M38" s="13"/>
     </row>
     <row r="39" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7640,7 +8078,7 @@
       <c r="M42" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="14">
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:I4"/>
@@ -7648,11 +8086,10 @@
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="L2:L4"/>
     <mergeCell ref="M2:M4"/>
-    <mergeCell ref="C6:E13"/>
-    <mergeCell ref="G8:H11"/>
-    <mergeCell ref="G16:H17"/>
+    <mergeCell ref="F7:I10"/>
+    <mergeCell ref="C14:L16"/>
     <mergeCell ref="C20:L22"/>
-    <mergeCell ref="G28:H29"/>
+    <mergeCell ref="C26:L28"/>
     <mergeCell ref="C32:L34"/>
     <mergeCell ref="C40:E41"/>
     <mergeCell ref="K40:L41"/>
@@ -7675,14 +8112,14 @@
   <dimension ref="B2:M42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.05"/>
   <cols>
-    <col collapsed="false" hidden="false" max="25" min="1" style="0" width="11.7592592592593"/>
-    <col collapsed="false" hidden="false" max="31" min="26" style="0" width="11.662962962963"/>
-    <col collapsed="false" hidden="false" max="1025" min="32" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="25" min="1" style="0" width="12.0518518518519"/>
+    <col collapsed="false" hidden="false" max="31" min="26" style="0" width="11.9555555555556"/>
+    <col collapsed="false" hidden="false" max="1025" min="32" style="0" width="9.01481481481481"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7707,7 +8144,7 @@
       <c r="L2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="33" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7723,7 +8160,7 @@
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="32"/>
+      <c r="M3" s="33"/>
     </row>
     <row r="4" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="2"/>
@@ -7737,7 +8174,7 @@
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="32"/>
+      <c r="M4" s="33"/>
     </row>
     <row r="5" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="7"/>
@@ -7755,13 +8192,10 @@
     </row>
     <row r="6" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="10"/>
-      <c r="C6" s="11" t="s">
-        <v>19</v>
-      </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
@@ -7774,10 +8208,12 @@
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
+      <c r="F7" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
@@ -7788,14 +8224,12 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
       <c r="L8" s="12"/>
       <c r="M8" s="13"/>
     </row>
@@ -7804,12 +8238,12 @@
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
       <c r="L9" s="12"/>
       <c r="M9" s="13"/>
     </row>
@@ -7818,12 +8252,12 @@
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
       <c r="L10" s="12"/>
       <c r="M10" s="13"/>
     </row>
@@ -7832,9 +8266,9 @@
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
@@ -7846,8 +8280,8 @@
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -7860,8 +8294,8 @@
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="12"/>
@@ -7871,94 +8305,88 @@
     </row>
     <row r="14" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="10"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
+      <c r="C14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
       <c r="M14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="10"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
       <c r="M15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="10"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="19" t="s">
-        <v>25</v>
-      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
       <c r="H16" s="19"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
       <c r="M16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="10"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
       <c r="M17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="10"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
       <c r="M18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="10"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
       <c r="M19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="10"/>
       <c r="C20" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
@@ -8043,94 +8471,85 @@
     </row>
     <row r="26" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="10"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
+      <c r="C26" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
       <c r="M26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="10"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
       <c r="M27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="10"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="19" t="s">
-        <v>25</v>
-      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
       <c r="H28" s="19"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
       <c r="M28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="10"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
       <c r="M29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="10"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
       <c r="M30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="10"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
       <c r="M31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="10"/>
       <c r="C32" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
@@ -8215,16 +8634,16 @@
     </row>
     <row r="38" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="10"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
       <c r="M38" s="13"/>
     </row>
     <row r="39" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8288,7 +8707,7 @@
       <c r="M42" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="14">
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:I4"/>
@@ -8296,11 +8715,10 @@
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="L2:L4"/>
     <mergeCell ref="M2:M4"/>
-    <mergeCell ref="C6:E13"/>
-    <mergeCell ref="G8:H11"/>
-    <mergeCell ref="G16:H17"/>
+    <mergeCell ref="F7:I10"/>
+    <mergeCell ref="C14:L16"/>
     <mergeCell ref="C20:L22"/>
-    <mergeCell ref="G28:H29"/>
+    <mergeCell ref="C26:L28"/>
     <mergeCell ref="C32:L34"/>
     <mergeCell ref="C40:E41"/>
     <mergeCell ref="K40:L41"/>
@@ -8322,14 +8740,14 @@
   </sheetPr>
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J38" activeCellId="0" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col collapsed="false" hidden="false" max="14" min="1" style="0" width="11.7592592592593"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="14" min="1" style="0" width="12.0518518518519"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="9.01481481481481"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -8355,7 +8773,7 @@
       <c r="L2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="29" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8371,7 +8789,7 @@
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="28"/>
+      <c r="M3" s="29"/>
     </row>
     <row r="4" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="2"/>
@@ -8385,7 +8803,7 @@
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="28"/>
+      <c r="M4" s="29"/>
     </row>
     <row r="5" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="7"/>
@@ -8403,15 +8821,6 @@
     </row>
     <row r="6" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="10"/>
-      <c r="C6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
@@ -8419,13 +8828,12 @@
     </row>
     <row r="7" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
+      <c r="F7" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
@@ -8433,57 +8841,39 @@
     </row>
     <row r="8" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="33"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
       <c r="L8" s="12"/>
       <c r="M8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
       <c r="L9" s="12"/>
       <c r="M9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
       <c r="L10" s="12"/>
       <c r="M10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
       <c r="L11" s="12"/>
@@ -8491,13 +8881,6 @@
     </row>
     <row r="12" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
       <c r="L12" s="12"/>
@@ -8505,13 +8888,6 @@
     </row>
     <row r="13" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
@@ -8521,12 +8897,14 @@
       <c r="B14" s="10"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="12"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="30"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
       <c r="M14" s="13"/>
@@ -8535,128 +8913,126 @@
       <c r="A15" s="13"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="12"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="30"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
       <c r="M15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="13"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
       <c r="M16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="13"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
       <c r="M17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="13"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="19"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="19" t="s">
+        <v>26</v>
+      </c>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
       <c r="M18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="13"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
       <c r="M19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="13"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
       <c r="M20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="13"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
       <c r="M21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="13"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="19"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="19" t="s">
+        <v>27</v>
+      </c>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
       <c r="M22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="13"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
       <c r="M23" s="13"/>
@@ -8665,12 +9041,6 @@
       <c r="A24" s="13"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
       <c r="M24" s="13"/>
@@ -8679,14 +9049,6 @@
       <c r="A25" s="13"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="12"/>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
       <c r="M25" s="13"/>
@@ -8696,11 +9058,6 @@
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="12"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="12"/>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
       <c r="M26" s="13"/>
@@ -8710,111 +9067,91 @@
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="12"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
       <c r="M27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="13"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
       <c r="M28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="13"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
       <c r="M29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="13"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
       <c r="M30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="13"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
       <c r="M31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="13"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
       <c r="M32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="13"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
       <c r="M33" s="13"/>
     </row>
     <row r="34" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="13"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
       <c r="M34" s="13"/>
     </row>
     <row r="35" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8861,16 +9198,16 @@
     </row>
     <row r="38" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="10"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
       <c r="M38" s="13"/>
     </row>
     <row r="39" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8934,7 +9271,7 @@
       <c r="M42" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="13">
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:I4"/>
@@ -8942,11 +9279,10 @@
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="L2:L4"/>
     <mergeCell ref="M2:M4"/>
-    <mergeCell ref="C6:E13"/>
-    <mergeCell ref="G8:H11"/>
-    <mergeCell ref="F17:I18"/>
-    <mergeCell ref="F21:I22"/>
-    <mergeCell ref="F25:I26"/>
+    <mergeCell ref="F7:I10"/>
+    <mergeCell ref="F14:I15"/>
+    <mergeCell ref="F18:I19"/>
+    <mergeCell ref="F22:I23"/>
     <mergeCell ref="C40:E41"/>
     <mergeCell ref="K40:L41"/>
   </mergeCells>
@@ -8968,13 +9304,13 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T22" activeCellId="0" sqref="T22"/>
+      <selection pane="topLeft" activeCell="I38" activeCellId="0" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col collapsed="false" hidden="false" max="13" min="1" style="0" width="11.7592592592593"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="13" min="1" style="0" width="12.0518518518519"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.01481481481481"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -9000,7 +9336,7 @@
       <c r="L2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="29" t="s">
         <v>5</v>
       </c>
     </row>
@@ -9016,7 +9352,7 @@
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="28"/>
+      <c r="M3" s="29"/>
     </row>
     <row r="4" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="2"/>
@@ -9030,7 +9366,7 @@
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="28"/>
+      <c r="M4" s="29"/>
     </row>
     <row r="5" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="7"/>
@@ -9048,13 +9384,7 @@
     </row>
     <row r="6" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="10"/>
-      <c r="C6" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
+      <c r="G6" s="30"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
@@ -9064,13 +9394,12 @@
     </row>
     <row r="7" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="10"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
+      <c r="F7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
@@ -9078,56 +9407,41 @@
     </row>
     <row r="8" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="10"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="33"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
       <c r="L8" s="12"/>
       <c r="M8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="10"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
       <c r="L9" s="12"/>
       <c r="M9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="10"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
       <c r="L10" s="12"/>
       <c r="M10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="10"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
@@ -9136,11 +9450,7 @@
     </row>
     <row r="12" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="10"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
+      <c r="G12" s="30"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -9150,11 +9460,7 @@
     </row>
     <row r="13" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="10"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
+      <c r="G13" s="30"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="12"/>
@@ -9164,10 +9470,11 @@
     </row>
     <row r="14" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="10"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="14"/>
+      <c r="C14" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -9178,46 +9485,46 @@
     </row>
     <row r="15" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="12"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
+      <c r="G15" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
       <c r="L15" s="12"/>
       <c r="M15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="13"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="30"/>
       <c r="M16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="13"/>
-      <c r="C17" s="19" t="s">
-        <v>31</v>
-      </c>
+      <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="30"/>
       <c r="M17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9225,15 +9532,7 @@
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="29"/>
+      <c r="F18" s="30"/>
       <c r="M18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9241,13 +9540,7 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="29"/>
+      <c r="F19" s="30"/>
       <c r="M19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9255,63 +9548,28 @@
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="29"/>
+      <c r="F20" s="30"/>
       <c r="M20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="13"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
       <c r="M21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="13"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
       <c r="M22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="13"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
       <c r="M23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="13"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
+      <c r="C24" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
@@ -9322,45 +9580,45 @@
     </row>
     <row r="25" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="14"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
       <c r="L25" s="14"/>
       <c r="M25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="14"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
       <c r="L26" s="14"/>
       <c r="M26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="13"/>
-      <c r="C27" s="19" t="s">
-        <v>33</v>
-      </c>
+      <c r="C27" s="19"/>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
       <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
       <c r="L27" s="12"/>
       <c r="M27" s="13"/>
     </row>
@@ -9369,15 +9627,7 @@
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="29"/>
+      <c r="F28" s="30"/>
       <c r="M28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9385,143 +9635,101 @@
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="29"/>
+      <c r="F29" s="30"/>
       <c r="M29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="13"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="29"/>
       <c r="M30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="13"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
       <c r="M31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="13"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
       <c r="M32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="13"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
+      <c r="C33" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
       <c r="M33" s="13"/>
     </row>
     <row r="34" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="13"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="30"/>
       <c r="M34" s="13"/>
     </row>
     <row r="35" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="13"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
       <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
       <c r="L35" s="12"/>
       <c r="M35" s="13"/>
     </row>
     <row r="36" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="10"/>
-      <c r="C36" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
       <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
       <c r="L36" s="12"/>
       <c r="M36" s="13"/>
     </row>
     <row r="37" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="10"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
       <c r="L37" s="12"/>
       <c r="M37" s="13"/>
     </row>
     <row r="38" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="10"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="31"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
       <c r="M38" s="13"/>
     </row>
     <row r="39" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9585,7 +9793,7 @@
       <c r="M42" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="16">
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:I4"/>
@@ -9593,14 +9801,13 @@
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="L2:L4"/>
     <mergeCell ref="M2:M4"/>
-    <mergeCell ref="C6:E13"/>
-    <mergeCell ref="G8:H11"/>
-    <mergeCell ref="C17:E23"/>
-    <mergeCell ref="G18:K20"/>
-    <mergeCell ref="C27:E32"/>
-    <mergeCell ref="G28:K30"/>
-    <mergeCell ref="C36:E38"/>
-    <mergeCell ref="G37:K38"/>
+    <mergeCell ref="F7:I10"/>
+    <mergeCell ref="C14:E20"/>
+    <mergeCell ref="G15:K17"/>
+    <mergeCell ref="C24:E29"/>
+    <mergeCell ref="G25:K27"/>
+    <mergeCell ref="C33:E38"/>
+    <mergeCell ref="G34:K36"/>
     <mergeCell ref="C40:E41"/>
     <mergeCell ref="K40:L41"/>
   </mergeCells>
@@ -9627,7 +9834,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.01481481481481"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -9653,8 +9860,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.05"/>
   <cols>
-    <col collapsed="false" hidden="false" max="22" min="1" style="0" width="11.7592592592593"/>
-    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="22" min="1" style="0" width="12.0518518518519"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="9.01481481481481"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9662,57 +9869,57 @@
       <c r="O1" s="12"/>
     </row>
     <row r="2" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="39" t="s">
-        <v>36</v>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="38" t="s">
+        <v>32</v>
       </c>
       <c r="O2" s="12"/>
     </row>
     <row r="3" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="39"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="38"/>
       <c r="O3" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="39"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="38"/>
       <c r="O4" s="12"/>
     </row>
     <row r="5" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="12"/>
-      <c r="B5" s="40"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -9723,12 +9930,12 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
-      <c r="M5" s="41"/>
+      <c r="M5" s="40"/>
       <c r="O5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="12"/>
-      <c r="B6" s="42"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="11" t="s">
         <v>6</v>
       </c>
@@ -9741,12 +9948,12 @@
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
-      <c r="M6" s="43"/>
+      <c r="M6" s="42"/>
       <c r="O6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="12"/>
-      <c r="B7" s="42"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -9757,12 +9964,12 @@
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
-      <c r="M7" s="43"/>
+      <c r="M7" s="42"/>
       <c r="O7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="12"/>
-      <c r="B8" s="42"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -9773,12 +9980,12 @@
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
-      <c r="M8" s="43"/>
+      <c r="M8" s="42"/>
       <c r="O8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="12"/>
-      <c r="B9" s="42"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -9789,12 +9996,12 @@
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
-      <c r="M9" s="43"/>
+      <c r="M9" s="42"/>
       <c r="O9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="12"/>
-      <c r="B10" s="42"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="5" t="s">
         <v>7</v>
       </c>
@@ -9807,12 +10014,12 @@
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
       <c r="L10" s="12"/>
-      <c r="M10" s="43"/>
+      <c r="M10" s="42"/>
       <c r="O10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="12"/>
-      <c r="B11" s="42"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -9823,9 +10030,9 @@
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
       <c r="L11" s="12"/>
-      <c r="M11" s="43"/>
+      <c r="M11" s="42"/>
       <c r="O11" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
@@ -9838,7 +10045,7 @@
     </row>
     <row r="12" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="12"/>
-      <c r="B12" s="42"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -9849,7 +10056,7 @@
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
       <c r="L12" s="12"/>
-      <c r="M12" s="43"/>
+      <c r="M12" s="42"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
@@ -9862,7 +10069,7 @@
     </row>
     <row r="13" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="12"/>
-      <c r="B13" s="42"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -9873,7 +10080,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
-      <c r="M13" s="43"/>
+      <c r="M13" s="42"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -9886,7 +10093,7 @@
     </row>
     <row r="14" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="12"/>
-      <c r="B14" s="42"/>
+      <c r="B14" s="41"/>
       <c r="C14" s="5" t="s">
         <v>8</v>
       </c>
@@ -9899,7 +10106,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
-      <c r="M14" s="43"/>
+      <c r="M14" s="42"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -9912,7 +10119,7 @@
     </row>
     <row r="15" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="12"/>
-      <c r="B15" s="42"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="12"/>
@@ -9923,12 +10130,12 @@
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
-      <c r="M15" s="43"/>
+      <c r="M15" s="42"/>
       <c r="O15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="12"/>
-      <c r="B16" s="44"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -9939,12 +10146,12 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="45"/>
+      <c r="M16" s="44"/>
       <c r="O16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="12"/>
-      <c r="B17" s="40"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -9955,12 +10162,12 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
-      <c r="M17" s="41"/>
+      <c r="M17" s="40"/>
       <c r="O17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="12"/>
-      <c r="B18" s="42"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -9971,12 +10178,12 @@
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
-      <c r="M18" s="43"/>
+      <c r="M18" s="42"/>
       <c r="O18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="12"/>
-      <c r="B19" s="42"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
@@ -9987,11 +10194,11 @@
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
-      <c r="M19" s="43"/>
+      <c r="M19" s="42"/>
       <c r="O19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="42"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -10004,12 +10211,12 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="43"/>
+      <c r="M20" s="42"/>
       <c r="O20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="12"/>
-      <c r="B21" s="42"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -10020,12 +10227,12 @@
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
-      <c r="M21" s="43"/>
+      <c r="M21" s="42"/>
       <c r="O21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="12"/>
-      <c r="B22" s="42"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
@@ -10036,12 +10243,12 @@
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
-      <c r="M22" s="43"/>
+      <c r="M22" s="42"/>
       <c r="O22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="12"/>
-      <c r="B23" s="42"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
@@ -10052,17 +10259,17 @@
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
-      <c r="M23" s="43"/>
+      <c r="M23" s="42"/>
       <c r="O23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="12"/>
-      <c r="B24" s="42"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
@@ -10070,12 +10277,12 @@
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
-      <c r="M24" s="43"/>
+      <c r="M24" s="42"/>
       <c r="O24" s="12"/>
     </row>
     <row r="25" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="12"/>
-      <c r="B25" s="42"/>
+      <c r="B25" s="41"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="12"/>
@@ -10086,12 +10293,12 @@
       <c r="J25" s="12"/>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
-      <c r="M25" s="43"/>
+      <c r="M25" s="42"/>
       <c r="O25" s="12"/>
     </row>
     <row r="26" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="12"/>
-      <c r="B26" s="42"/>
+      <c r="B26" s="41"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="12"/>
@@ -10102,12 +10309,12 @@
       <c r="J26" s="12"/>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
-      <c r="M26" s="43"/>
+      <c r="M26" s="42"/>
       <c r="O26" s="12"/>
     </row>
     <row r="27" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="12"/>
-      <c r="B27" s="42"/>
+      <c r="B27" s="41"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="12"/>
@@ -10118,12 +10325,12 @@
       <c r="J27" s="12"/>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
-      <c r="M27" s="43"/>
+      <c r="M27" s="42"/>
       <c r="O27" s="12"/>
     </row>
     <row r="28" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="12"/>
-      <c r="B28" s="42"/>
+      <c r="B28" s="41"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="12"/>
@@ -10134,12 +10341,12 @@
       <c r="J28" s="12"/>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
-      <c r="M28" s="43"/>
+      <c r="M28" s="42"/>
       <c r="O28" s="12"/>
     </row>
     <row r="29" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="12"/>
-      <c r="B29" s="42"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="12"/>
@@ -10150,12 +10357,12 @@
       <c r="J29" s="12"/>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
-      <c r="M29" s="43"/>
+      <c r="M29" s="42"/>
       <c r="O29" s="12"/>
     </row>
     <row r="30" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="12"/>
-      <c r="B30" s="42"/>
+      <c r="B30" s="41"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="12"/>
@@ -10166,12 +10373,12 @@
       <c r="J30" s="12"/>
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
-      <c r="M30" s="43"/>
+      <c r="M30" s="42"/>
       <c r="O30" s="12"/>
     </row>
     <row r="31" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="12"/>
-      <c r="B31" s="42"/>
+      <c r="B31" s="41"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="12"/>
@@ -10182,12 +10389,12 @@
       <c r="J31" s="12"/>
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
-      <c r="M31" s="43"/>
+      <c r="M31" s="42"/>
       <c r="O31" s="12"/>
     </row>
     <row r="32" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="12"/>
-      <c r="B32" s="42"/>
+      <c r="B32" s="41"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="12"/>
@@ -10198,12 +10405,12 @@
       <c r="J32" s="12"/>
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
-      <c r="M32" s="43"/>
+      <c r="M32" s="42"/>
       <c r="O32" s="12"/>
     </row>
     <row r="33" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="12"/>
-      <c r="B33" s="42"/>
+      <c r="B33" s="41"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
       <c r="E33" s="12"/>
@@ -10214,12 +10421,12 @@
       <c r="J33" s="12"/>
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
-      <c r="M33" s="43"/>
+      <c r="M33" s="42"/>
       <c r="O33" s="12"/>
     </row>
     <row r="34" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="12"/>
-      <c r="B34" s="42"/>
+      <c r="B34" s="41"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
@@ -10230,14 +10437,14 @@
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
       <c r="L34" s="12"/>
-      <c r="M34" s="43"/>
+      <c r="M34" s="42"/>
       <c r="O34" s="12"/>
     </row>
     <row r="35" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="12"/>
-      <c r="B35" s="42"/>
+      <c r="B35" s="41"/>
       <c r="C35" s="19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
@@ -10248,12 +10455,12 @@
       <c r="J35" s="19"/>
       <c r="K35" s="19"/>
       <c r="L35" s="19"/>
-      <c r="M35" s="43"/>
+      <c r="M35" s="42"/>
       <c r="O35" s="12"/>
     </row>
     <row r="36" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="12"/>
-      <c r="B36" s="42"/>
+      <c r="B36" s="41"/>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
@@ -10264,12 +10471,12 @@
       <c r="J36" s="19"/>
       <c r="K36" s="19"/>
       <c r="L36" s="19"/>
-      <c r="M36" s="43"/>
+      <c r="M36" s="42"/>
       <c r="O36" s="12"/>
     </row>
     <row r="37" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="12"/>
-      <c r="B37" s="42"/>
+      <c r="B37" s="41"/>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
@@ -10280,12 +10487,12 @@
       <c r="J37" s="19"/>
       <c r="K37" s="19"/>
       <c r="L37" s="19"/>
-      <c r="M37" s="43"/>
+      <c r="M37" s="42"/>
       <c r="O37" s="12"/>
     </row>
     <row r="38" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="12"/>
-      <c r="B38" s="42"/>
+      <c r="B38" s="41"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
@@ -10296,12 +10503,12 @@
       <c r="J38" s="19"/>
       <c r="K38" s="19"/>
       <c r="L38" s="19"/>
-      <c r="M38" s="43"/>
+      <c r="M38" s="42"/>
       <c r="O38" s="12"/>
     </row>
     <row r="39" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="12"/>
-      <c r="B39" s="42"/>
+      <c r="B39" s="41"/>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
@@ -10312,12 +10519,12 @@
       <c r="J39" s="14"/>
       <c r="K39" s="14"/>
       <c r="L39" s="14"/>
-      <c r="M39" s="43"/>
+      <c r="M39" s="42"/>
       <c r="O39" s="12"/>
     </row>
     <row r="40" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="12"/>
-      <c r="B40" s="42"/>
+      <c r="B40" s="41"/>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
@@ -10328,12 +10535,12 @@
       <c r="J40" s="14"/>
       <c r="K40" s="14"/>
       <c r="L40" s="14"/>
-      <c r="M40" s="43"/>
+      <c r="M40" s="42"/>
       <c r="O40" s="12"/>
     </row>
     <row r="41" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="12"/>
-      <c r="B41" s="42"/>
+      <c r="B41" s="41"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
@@ -10344,17 +10551,17 @@
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
-      <c r="M41" s="43"/>
+      <c r="M41" s="42"/>
       <c r="O41" s="12"/>
     </row>
     <row r="42" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="12"/>
-      <c r="B42" s="42"/>
+      <c r="B42" s="41"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
       <c r="F42" s="19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G42" s="19"/>
       <c r="H42" s="19"/>
@@ -10362,12 +10569,12 @@
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
-      <c r="M42" s="43"/>
+      <c r="M42" s="42"/>
       <c r="O42" s="12"/>
     </row>
     <row r="43" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="12"/>
-      <c r="B43" s="42"/>
+      <c r="B43" s="41"/>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
       <c r="E43" s="12"/>
@@ -10378,11 +10585,11 @@
       <c r="J43" s="12"/>
       <c r="K43" s="14"/>
       <c r="L43" s="14"/>
-      <c r="M43" s="43"/>
+      <c r="M43" s="42"/>
     </row>
     <row r="44" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="12"/>
-      <c r="B44" s="42"/>
+      <c r="B44" s="41"/>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
       <c r="E44" s="12"/>
@@ -10393,11 +10600,11 @@
       <c r="J44" s="12"/>
       <c r="K44" s="14"/>
       <c r="L44" s="14"/>
-      <c r="M44" s="43"/>
+      <c r="M44" s="42"/>
     </row>
     <row r="45" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="12"/>
-      <c r="B45" s="42"/>
+      <c r="B45" s="41"/>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
       <c r="E45" s="12"/>
@@ -10408,11 +10615,11 @@
       <c r="J45" s="12"/>
       <c r="K45" s="14"/>
       <c r="L45" s="14"/>
-      <c r="M45" s="43"/>
+      <c r="M45" s="42"/>
     </row>
     <row r="46" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="12"/>
-      <c r="B46" s="42"/>
+      <c r="B46" s="41"/>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
       <c r="E46" s="12"/>
@@ -10423,11 +10630,11 @@
       <c r="J46" s="12"/>
       <c r="K46" s="14"/>
       <c r="L46" s="14"/>
-      <c r="M46" s="43"/>
+      <c r="M46" s="42"/>
     </row>
     <row r="47" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="12"/>
-      <c r="B47" s="42"/>
+      <c r="B47" s="41"/>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
       <c r="E47" s="12"/>
@@ -10438,11 +10645,11 @@
       <c r="J47" s="12"/>
       <c r="K47" s="14"/>
       <c r="L47" s="14"/>
-      <c r="M47" s="43"/>
+      <c r="M47" s="42"/>
     </row>
     <row r="48" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="12"/>
-      <c r="B48" s="42"/>
+      <c r="B48" s="41"/>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
       <c r="E48" s="12"/>
@@ -10453,11 +10660,11 @@
       <c r="J48" s="12"/>
       <c r="K48" s="14"/>
       <c r="L48" s="14"/>
-      <c r="M48" s="43"/>
+      <c r="M48" s="42"/>
     </row>
     <row r="49" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="12"/>
-      <c r="B49" s="42"/>
+      <c r="B49" s="41"/>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
       <c r="E49" s="12"/>
@@ -10468,11 +10675,11 @@
       <c r="J49" s="12"/>
       <c r="K49" s="14"/>
       <c r="L49" s="14"/>
-      <c r="M49" s="43"/>
+      <c r="M49" s="42"/>
     </row>
     <row r="50" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="12"/>
-      <c r="B50" s="42"/>
+      <c r="B50" s="41"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="12"/>
@@ -10483,22 +10690,22 @@
       <c r="J50" s="12"/>
       <c r="K50" s="14"/>
       <c r="L50" s="14"/>
-      <c r="M50" s="43"/>
+      <c r="M50" s="42"/>
     </row>
     <row r="51" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="12"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="48"/>
-      <c r="J51" s="48"/>
-      <c r="K51" s="47"/>
-      <c r="L51" s="47"/>
-      <c r="M51" s="49"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="46"/>
+      <c r="M51" s="48"/>
     </row>
     <row r="52" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="12"/>
@@ -10518,63 +10725,63 @@
     <row r="53" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="12"/>
       <c r="B53" s="10"/>
-      <c r="C53" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="D53" s="50"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="50"/>
-      <c r="J53" s="50"/>
-      <c r="K53" s="50"/>
-      <c r="L53" s="50"/>
+      <c r="C53" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="49"/>
+      <c r="I53" s="49"/>
+      <c r="J53" s="49"/>
+      <c r="K53" s="49"/>
+      <c r="L53" s="49"/>
       <c r="M53" s="13"/>
     </row>
     <row r="54" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="12"/>
       <c r="B54" s="10"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="50"/>
-      <c r="G54" s="50"/>
-      <c r="H54" s="50"/>
-      <c r="I54" s="50"/>
-      <c r="J54" s="50"/>
-      <c r="K54" s="50"/>
-      <c r="L54" s="50"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="49"/>
+      <c r="I54" s="49"/>
+      <c r="J54" s="49"/>
+      <c r="K54" s="49"/>
+      <c r="L54" s="49"/>
       <c r="M54" s="13"/>
     </row>
     <row r="55" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="12"/>
       <c r="B55" s="10"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="50"/>
-      <c r="F55" s="50"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="50"/>
-      <c r="I55" s="50"/>
-      <c r="J55" s="50"/>
-      <c r="K55" s="50"/>
-      <c r="L55" s="50"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="49"/>
+      <c r="J55" s="49"/>
+      <c r="K55" s="49"/>
+      <c r="L55" s="49"/>
       <c r="M55" s="13"/>
     </row>
     <row r="56" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="12"/>
       <c r="B56" s="15"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="50"/>
-      <c r="E56" s="50"/>
-      <c r="F56" s="50"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="50"/>
-      <c r="I56" s="50"/>
-      <c r="J56" s="50"/>
-      <c r="K56" s="50"/>
-      <c r="L56" s="50"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="49"/>
+      <c r="I56" s="49"/>
+      <c r="J56" s="49"/>
+      <c r="K56" s="49"/>
+      <c r="L56" s="49"/>
       <c r="M56" s="16"/>
     </row>
     <row r="57" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
